--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -499,11 +499,7 @@
           <t>Charlene Good</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Special Hunter Warmup</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -534,11 +530,7 @@
           <t>Charlene Good</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Special Hunter Warmup</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -569,11 +561,7 @@
           <t>Charlene Good</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Special Hunter Warmup</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -604,11 +592,7 @@
           <t>Charlene Good</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Special Hunter Warmup</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -641,7 +625,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Special Hunter Warmup</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -676,7 +660,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Special Hunter Warmup</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -711,7 +695,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Open Equitation Warmup</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
